--- a/biology/Zoologie/Dendrobaena/Dendrobaena.xlsx
+++ b/biology/Zoologie/Dendrobaena/Dendrobaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrobaena est un genre de vers de terre de la famille des Lumbricidae et dont l'espèce type est Dendrobaena octaedra, le Lombric à queue octogonale[2]. Originaire du Paléarctique, ce genre s'est exporté sur une grande partie de la planète[3].
-En Europe, ses espèces appartiennent au groupe des épigés et vivent majoritairement dans la litière forestière riche en matière organique sur des sols parfois acides, mouillés et froids à l'instar de Dendrobaena attemsi, D. auriculata, D. illyrica, D. octaedra, et D. pygmea. Quant à D. hortensis et D. veneta, elles sont spécialisées dans la décomposition de l'écorce des arbres et se retrouvent dans le compost[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrobaena est un genre de vers de terre de la famille des Lumbricidae et dont l'espèce type est Dendrobaena octaedra, le Lombric à queue octogonale. Originaire du Paléarctique, ce genre s'est exporté sur une grande partie de la planète.
+En Europe, ses espèces appartiennent au groupe des épigés et vivent majoritairement dans la litière forestière riche en matière organique sur des sols parfois acides, mouillés et froids à l'instar de Dendrobaena attemsi, D. auriculata, D. illyrica, D. octaedra, et D. pygmea. Quant à D. hortensis et D. veneta, elles sont spécialisées dans la décomposition de l'écorce des arbres et se retrouvent dans le compost,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dendrobaena a été créé en 1874[5] par le naturaliste américain d'origine suédoise Gustaf Eisen (d) (1847-1940)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dendrobaena a été créé en 1874 par le naturaliste américain d'origine suédoise Gustaf Eisen (d) (1847-1940).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (23 janvier 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (23 janvier 2022) :
 Dendrobaena alpina (Rosa, 1884)
 Dendrobaena attemsi (Michaelsen, 1903)
 Dendrobaena auriculata (Rosa, 1897)
@@ -599,7 +615,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(sv) Gustaf Eisen, « Om Skandinaviens Lumbricider », Öfversigt af Kongl. Vetenskaps-Akademiens Förhandlingar, Stockholm, Inconnu, vol. 30,‎ 1873, p. 43-56 (ISSN 1100-4622, OCLC 6303212, lire en ligne)</t>
         </is>
